--- a/data files/Modified Files/2024-11-01/order_NAULAKHA_2024-11-01.xlsx
+++ b/data files/Modified Files/2024-11-01/order_NAULAKHA_2024-11-01.xlsx
@@ -524,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -743,12 +743,12 @@
       </c>
       <c r="B17" s="23" t="inlineStr">
         <is>
-          <t>Steam Vaporizer Sleek All in One</t>
+          <t>Bed Pan Sleek Standard</t>
         </is>
       </c>
       <c r="C17" s="23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" s="23" t="inlineStr">
@@ -759,19 +759,39 @@
     </row>
     <row r="18">
       <c r="A18" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="23" t="inlineStr">
+        <is>
+          <t>Steam Vaporizer Sleek All in One</t>
+        </is>
+      </c>
+      <c r="C18" s="23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" s="23" t="inlineStr">
+        <is>
+          <t>pcs</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="n">
         <v/>
       </c>
-      <c r="B18" s="23" t="inlineStr">
+      <c r="B19" s="23" t="inlineStr">
         <is>
           <t>*Loose with plain Polythene</t>
         </is>
       </c>
-      <c r="C18" s="23" t="n"/>
-      <c r="D18" s="23" t="n"/>
-    </row>
-    <row r="19"/>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
+      <c r="C19" s="23" t="n"/>
+      <c r="D19" s="23" t="n"/>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" s="24" t="inlineStr">
         <is>
           <t>Thanking You.</t>
         </is>
